--- a/Report/words_count.xlsx
+++ b/Report/words_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simone\Desktop\MSc DA\Github\CA1-Population_in_Ireland\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799563B5-A522-45FE-AD3C-63A8E150AB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8317D0A9-4689-441C-9D11-6F46971AC190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Words requirement</t>
   </si>
@@ -81,6 +81,14 @@
   </si>
   <si>
     <t>Abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">781
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">902
+</t>
   </si>
 </sst>
 </file>
@@ -147,12 +155,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -162,6 +167,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G11:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -481,261 +496,285 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="J8" s="6">
-        <v>213</v>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="J8" s="5">
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f>D3/3</f>
         <v>1200</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f>D2/3</f>
         <v>1333.3333333333333</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f>D4/3</f>
         <v>1466.6666666666667</v>
+      </c>
+      <c r="J10" s="8">
+        <f>SUM(665, 781)</f>
+        <v>1446</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>0.35</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f>$F$10*D11</f>
         <v>420</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f>$G$10*D11</f>
         <v>466.66666666666663</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <f>$H$10*D11</f>
         <v>513.33333333333337</v>
+      </c>
+      <c r="J11">
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>0.3</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" ref="F12:F14" si="0">$F$10*D12</f>
         <v>360</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" ref="G12:G14" si="1">$G$10*D12</f>
         <v>399.99999999999994</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f t="shared" ref="H12:H14" si="2">$H$10*D12</f>
         <v>440</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>0.2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>293.33333333333337</v>
       </c>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>0.15</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>199.99999999999997</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D15" s="1"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <f>F10</f>
         <v>1200</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" ref="G16:H16" si="3">G10</f>
         <v>1333.3333333333333</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="3"/>
         <v>1466.6666666666667</v>
+      </c>
+      <c r="J16" s="8">
+        <f>902+J20</f>
+        <v>1252</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>0.2</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f>$F$16*D17</f>
         <v>240</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f>$G$16*D17</f>
         <v>266.66666666666669</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <f>$H$16*D17</f>
         <v>293.33333333333337</v>
       </c>
+      <c r="J17" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" ref="F18:F20" si="4">$F$16*D18</f>
-        <v>360</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" ref="G18:G20" si="5">$G$16*D18</f>
-        <v>399.99999999999994</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" ref="H18:H20" si="6">$H$16*D18</f>
-        <v>440</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" ref="F18:F19" si="4">$F$16*D18</f>
+        <v>240</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" ref="G18:G19" si="5">$G$16*D18</f>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" ref="H18:H19" si="6">$H$16*D18</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F19" s="3">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="G19" s="3">
+        <v>360</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="5"/>
-        <v>266.66666666666669</v>
-      </c>
-      <c r="H19" s="3">
+        <v>399.99999999999994</v>
+      </c>
+      <c r="H19" s="2">
         <f t="shared" si="6"/>
-        <v>293.33333333333337</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="7">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6">
         <v>0.3</v>
       </c>
-      <c r="F20" s="3">
-        <f t="shared" si="4"/>
+      <c r="F20" s="2">
+        <f>$F$16*D20</f>
         <v>360</v>
       </c>
-      <c r="G20" s="3">
-        <f t="shared" si="5"/>
+      <c r="G20" s="2">
+        <f>$G$16*D20</f>
         <v>399.99999999999994</v>
       </c>
-      <c r="H20" s="3">
-        <f t="shared" si="6"/>
+      <c r="H20" s="2">
+        <f>$H$16*D20</f>
         <v>440</v>
+      </c>
+      <c r="J20">
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D21" s="1"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <f>F16</f>
         <v>1200</v>
       </c>
-      <c r="G22" s="4">
-        <f t="shared" ref="G22:H22" si="7">G16</f>
+      <c r="G22" s="3">
+        <f>G16</f>
         <v>1333.3333333333333</v>
       </c>
-      <c r="H22" s="4">
-        <f t="shared" si="7"/>
+      <c r="H22" s="3">
+        <f>H16</f>
         <v>1466.6666666666667</v>
       </c>
     </row>
@@ -743,18 +782,18 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>0.2</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f>$F$22*D23</f>
         <v>240</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <f>$G$22*D23</f>
         <v>266.66666666666669</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <f>$H$22*D23</f>
         <v>293.33333333333337</v>
       </c>
@@ -763,19 +802,19 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>0.3</v>
       </c>
-      <c r="F24" s="3">
-        <f t="shared" ref="F24:F26" si="8">$F$22*D24</f>
+      <c r="F24" s="2">
+        <f t="shared" ref="F24:F26" si="7">$F$22*D24</f>
         <v>360</v>
       </c>
-      <c r="G24" s="3">
-        <f t="shared" ref="G24:G26" si="9">$G$22*D24</f>
+      <c r="G24" s="2">
+        <f t="shared" ref="G24:G26" si="8">$G$22*D24</f>
         <v>399.99999999999994</v>
       </c>
-      <c r="H24" s="3">
-        <f t="shared" ref="H24:H26" si="10">$H$22*D24</f>
+      <c r="H24" s="2">
+        <f t="shared" ref="H24:H26" si="9">$H$22*D24</f>
         <v>440</v>
       </c>
     </row>
@@ -783,19 +822,19 @@
       <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>0.3</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="8"/>
-        <v>360</v>
-      </c>
-      <c r="G25" s="3">
+        <v>399.99999999999994</v>
+      </c>
+      <c r="H25" s="2">
         <f t="shared" si="9"/>
-        <v>399.99999999999994</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="10"/>
         <v>440</v>
       </c>
     </row>
@@ -803,19 +842,19 @@
       <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>0.2</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="G26" s="2">
         <f t="shared" si="8"/>
-        <v>240</v>
-      </c>
-      <c r="G26" s="3">
+        <v>266.66666666666669</v>
+      </c>
+      <c r="H26" s="2">
         <f t="shared" si="9"/>
-        <v>266.66666666666669</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" si="10"/>
         <v>293.33333333333337</v>
       </c>
     </row>
@@ -826,43 +865,45 @@
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>0.5</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>0.5</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J32">
         <f>SUM(J8:J26)</f>
-        <v>213</v>
+        <v>3887</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="F28:H30"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J17:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Report/words_count.xlsx
+++ b/Report/words_count.xlsx
@@ -8,13 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simone\Desktop\MSc DA\Github\CA1-Population_in_Ireland\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8317D0A9-4689-441C-9D11-6F46971AC190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C92ED69-AEEC-43F2-BAC7-4CC9DA0A03C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">(Sheet1!$B$8,Sheet1!$B$10,Sheet1!$B$16,Sheet1!$B$22,Sheet1!$B$28)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">(Sheet1!$J$8,Sheet1!$J$10,Sheet1!$J$16,Sheet1!$J$22)</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$10:$J$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$J$10:$J$26</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$N$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$J$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$N$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Words requirement</t>
   </si>
@@ -83,19 +94,22 @@
     <t>Abstract</t>
   </si>
   <si>
-    <t xml:space="preserve">781
+    <t xml:space="preserve">677
 </t>
   </si>
   <si>
-    <t xml:space="preserve">902
+    <t xml:space="preserve">870
 </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +133,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -151,11 +179,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -177,6 +285,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,6 +333,909 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> words by subject</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Subject</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$8,Sheet1!$B$10,Sheet1!$B$16,Sheet1!$B$22,Sheet1!$B$28)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Abstract</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Statistics for Data Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Data Preparation &amp; Visualisation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Machine Learning for Data Analysis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Programming for Data Analysis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$J$8,Sheet1!$J$10,Sheet1!$J$16,Sheet1!$J$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B51E-494B-B104-5E1AC134DE2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="66559376"/>
+        <c:axId val="2073119184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="66559376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2073119184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2073119184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66559376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6F5A48-5292-42AB-1925-C169F325AF6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J32"/>
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J19"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -548,8 +1592,8 @@
         <v>1466.6666666666667</v>
       </c>
       <c r="J10" s="8">
-        <f>SUM(665, 781)</f>
-        <v>1446</v>
+        <f>SUM(665, 677)</f>
+        <v>1342</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
@@ -663,8 +1707,8 @@
         <v>1466.6666666666667</v>
       </c>
       <c r="J16" s="8">
-        <f>902+J20</f>
-        <v>1252</v>
+        <f>870+J20</f>
+        <v>1220</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
@@ -777,6 +1821,10 @@
         <f>H16</f>
         <v>1466.6666666666667</v>
       </c>
+      <c r="J22" s="8">
+        <f>SUM(J23:J26)</f>
+        <v>1657</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
@@ -797,6 +1845,9 @@
         <f>$H$22*D23</f>
         <v>293.33333333333337</v>
       </c>
+      <c r="J23">
+        <v>381</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
@@ -817,6 +1868,10 @@
         <f t="shared" ref="H24:H26" si="9">$H$22*D24</f>
         <v>440</v>
       </c>
+      <c r="J24">
+        <f>880-26-106-20-42</f>
+        <v>686</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
@@ -837,6 +1892,9 @@
         <f t="shared" si="9"/>
         <v>440</v>
       </c>
+      <c r="J25" s="11">
+        <v>590</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
@@ -857,6 +1915,7 @@
         <f t="shared" si="9"/>
         <v>293.33333333333337</v>
       </c>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D27" s="1"/>
@@ -893,19 +1952,56 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="J32">
-        <f>SUM(J8:J26)</f>
-        <v>3887</v>
-      </c>
+    <row r="32" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15">
+        <f>SUM(J8,J10,J16,J22)</f>
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="F28:H30"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="B33:H35"/>
+    <mergeCell ref="J33:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>